--- a/fslogix-ANF-calculator.xlsx
+++ b/fslogix-ANF-calculator.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MChad\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://proarchit-my.sharepoint.com/personal/gregd_proarch_com/Documents/Documents/GitHub/Fslogix-Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F282D37A-2727-43A6-94A0-D31E5FAE0319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{F282D37A-2727-43A6-94A0-D31E5FAE0319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DA6CC63-9CDE-4FDB-B059-BF39E27F79C1}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="gDUjH74XIGJJUPzyUYWvoxOiicF7Tj8bMGxa9N6oH2WDFKBAQRs6A3usjtyMZL21vRXIpTSfoOQkIo1QhX1WEA==" workbookSaltValue="PS9NlcIsX9yYtdu7qj/kUQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
+    <workbookView xWindow="11760" yWindow="1845" windowWidth="26550" windowHeight="17565" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
   <sheets>
     <sheet name="FSLogix Calculator" sheetId="1" r:id="rId1"/>
@@ -4117,7 +4117,7 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4172,7 +4172,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="31">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -4193,7 +4193,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="B15" s="17">
         <f>B$5*B$8</f>
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B16" s="17">
         <f>(B$6*B$10*B$5*B$8)/1024</f>
-        <v>125</v>
+        <v>1562.5</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B18" s="17">
         <f>B$6*B$5*B8</f>
-        <v>4000</v>
+        <v>50000</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B19" s="17">
         <f>B7*B5</f>
-        <v>4000</v>
+        <v>37500</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -4368,15 +4368,15 @@
       </c>
       <c r="B22" s="79">
         <f>IF(G22="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!C$46:C$48,'Azure NetApp Files Calcuations'!B$46:B$48,definitions!A$23),"Recommend Adding Additional Volumes")</f>
-        <v>753.82857142857142</v>
+        <v>11250</v>
       </c>
       <c r="C22" s="92">
         <f>IF(G22="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"Recommend Adding Additional Volumes")</f>
-        <v>285.71428571428572</v>
+        <v>2678.5714285714284</v>
       </c>
       <c r="D22" s="92">
         <f>IF(G22="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!C$42:C$44,'Azure NetApp Files Calcuations'!B$42:B$44,definitions!A$23),"Recommend Adding Additional Volumes")</f>
-        <v>468.11428571428564</v>
+        <v>8571.4285714285706</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>157</v>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B23" s="91">
         <f>IF(G22="Yes",IF($G$24=definitions!A$23,B$22,B$22/B$5),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>3.7691428571428571</v>
+        <v>4.5</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="G23" s="50">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!$C$31:$C$33,'Azure NetApp Files Calcuations'!$B$31:$B$33),"No")</f>
-        <v>8000</v>
+        <v>37500</v>
       </c>
       <c r="H23" s="51"/>
       <c r="I23" s="63"/>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="G24" s="50" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",(_xlfn.XLOOKUP(MIN('Azure NetApp Files Calcuations'!$B$38:$B$40),'Azure NetApp Files Calcuations'!$B$38:$B$40,'Azure NetApp Files Calcuations'!$C$38:$C$40)),"No")</f>
-        <v>Standard</v>
+        <v>Premium</v>
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="63"/>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="G25" s="50" t="str">
         <f>IF(G22="Configure more than one volume","No",(_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
-        <v>Bandwidth</v>
+        <v>Capacity</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="63"/>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="G26" s="50">
         <f>IF(G22="Yes",(_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!$C$50:$C$52,'Azure NetApp Files Calcuations'!$B$50:$B$52,definitions!A$23)),"No")</f>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="63"/>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="G28" s="84">
         <f>'Azure NetApp Files Calcuations'!B5</f>
-        <v>5120</v>
+        <v>6826</v>
       </c>
       <c r="H28" s="64" t="str">
         <f>IF(G29&gt;definitions!B30,definitions!$A$23,"Yes")</f>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="G32" s="86" t="str">
         <f>_xlfn.XLOOKUP("No, must configure additional storage accounts",'Azure Files Calculations'!$C$2:$C$4,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
-        <v>Yes</v>
+        <v>No, must configure additional storage accounts</v>
       </c>
       <c r="H32" s="66" t="str">
         <f>'Azure Files Calculations'!$B$4</f>
@@ -4573,11 +4573,11 @@
       </c>
       <c r="I32" s="56" t="str">
         <f>'Azure Files Calculations'!$B$2</f>
-        <v>Yes</v>
+        <v>Required I/O rate exceeds documented single storage account 10,000 op rate upper limit</v>
       </c>
       <c r="J32" s="56" t="str">
         <f>'Azure Files Calculations'!$B$3</f>
-        <v>Yes</v>
+        <v>Required bandwidth exceeds documented single storage account 300MiB/s  upper limit</v>
       </c>
     </row>
     <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -4588,9 +4588,9 @@
       <c r="F33" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="76">
+      <c r="G33" s="76" t="str">
         <f>IF(G32="Yes",$B$7*$B$5,"No")</f>
-        <v>4000</v>
+        <v>No</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="38"/>
@@ -4604,9 +4604,9 @@
       <c r="F34" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="76" t="str">
         <f>IF(G32="Yes",G33/$B$5,"No")</f>
-        <v>20</v>
+        <v>No</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="42"/>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="G37" s="87">
         <f>definitions!B45/'FSLogix Calculator'!B7</f>
-        <v>5120</v>
+        <v>6826.666666666667</v>
       </c>
       <c r="H37" s="65"/>
       <c r="I37" s="65"/>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="G41" s="76">
         <f>'Azure Files Calculations'!C14</f>
-        <v>4000</v>
+        <v>50000</v>
       </c>
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="G43" s="89" t="str">
         <f>'Azure Files Calculations'!B14</f>
-        <v>Profile Size</v>
+        <v>I/O Need</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="38"/>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="G45" s="76">
         <f>definitions!B46/'FSLogix Calculator'!B7</f>
-        <v>5120</v>
+        <v>6826.666666666667</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="44"/>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="B2" s="14">
         <f>'FSLogix Calculator'!B$19</f>
-        <v>4000</v>
+        <v>37500</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B3" s="14">
         <f>'FSLogix Calculator'!B$7</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="B5" s="2">
         <f>FLOOR(definitions!B24/'FSLogix Calculator'!B$7,1)</f>
-        <v>5120</v>
+        <v>6826</v>
       </c>
       <c r="C5" s="57"/>
     </row>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B7" s="14">
         <f>('FSLogix Calculator'!B$16*1024)/definitions!B30</f>
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>43</v>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="B8" s="14">
         <f>('FSLogix Calculator'!B$16*1024)/definitions!B28</f>
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>44</v>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="B9" s="14">
         <f>('FSLogix Calculator'!B$16*1024)/definitions!B26</f>
-        <v>1000</v>
+        <v>12500</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B16" s="2">
         <f>CEILING(IF(B12&gt;B$3,definitions!B$31/B12,definitions!B$31/B$3),1)</f>
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>44</v>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B17" s="2">
         <f>CEILING(IF(B13&gt;B$3,definitions!B$31/B13,definitions!B$31/B$3),1)</f>
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>39</v>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="B23" s="14">
         <f>IF(B$2&gt;B7,B$2,B7)</f>
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>43</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="B24" s="14">
         <f>IF(B$2&gt;B8,B$2,B8)</f>
-        <v>4000</v>
+        <v>37500</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>44</v>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="B25" s="14">
         <f>IF(B$2&gt;B9,B$2,B9)</f>
-        <v>4000</v>
+        <v>37500</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="B28" s="14" t="str">
         <f>IF(B24&gt;definitions!B$31,B20,"Capacity Pool Minimum Size")</f>
-        <v>Capacity Pool Minimum Size</v>
+        <v>Capacity</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>44</v>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="B29" s="14" t="str">
         <f>IF(B25&gt;definitions!B$31,B21,"Capacity Pool Minimum Size")</f>
-        <v>Capacity Pool Minimum Size</v>
+        <v>Capacity</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>39</v>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="B31" s="14">
         <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>43</v>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="B32" s="14">
         <f>IF(B24&gt;definitions!B$31,B24,definitions!B$31)</f>
-        <v>4096</v>
+        <v>37500</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>44</v>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B33" s="14">
         <f>IF(B25&gt;definitions!B$31,B25,definitions!B$31)</f>
-        <v>4096</v>
+        <v>37500</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>39</v>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="B38" s="23">
         <f>IF((B31&gt;definitions!B24),99999,B31*definitions!B$29)*(IF('FSLogix Calculator'!B2="yes",definitions!B37,1))</f>
-        <v>285.71428571428572</v>
+        <v>3571.4285714285711</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>43</v>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="B39" s="15">
         <f>IF((B32&gt;definitions!B24),99999,B32*definitions!B$27)*(IF('FSLogix Calculator'!B2="yes",definitions!B37,1))</f>
-        <v>292.57142857142856</v>
+        <v>2678.5714285714284</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>44</v>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B40" s="15">
         <f>IF((B33&gt;definitions!B24),99999,(B33*definitions!B$25))*(IF('FSLogix Calculator'!B2="yes",definitions!B37,1))</f>
-        <v>390.09523809523807</v>
+        <v>3571.4285714285711</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>39</v>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="B42" s="15">
         <f>(definitions!B29*(IF(B2&lt;definitions!B31,definitions!B31,B2)))*(IF('FSLogix Calculator'!B2="yes",definitions!B38,0))</f>
-        <v>468.11428571428564</v>
+        <v>4285.7142857142853</v>
       </c>
       <c r="C42" s="57" t="s">
         <v>43</v>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="B43" s="15">
         <f>(definitions!B27*(IF(B2&lt;definitions!B31,definitions!B31,B2)))*(IF('FSLogix Calculator'!B2="yes",definitions!B38,0))</f>
-        <v>936.22857142857129</v>
+        <v>8571.4285714285706</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>44</v>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B44" s="15">
         <f>(definitions!B25*(IF(B2&lt;definitions!B31,definitions!B31,B2)))*(IF('FSLogix Calculator'!B2="yes",definitions!B38,0))</f>
-        <v>1248.304761904762</v>
+        <v>11428.571428571428</v>
       </c>
       <c r="C44" s="57" t="s">
         <v>39</v>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B46" s="15">
         <f>B38+B42</f>
-        <v>753.82857142857142</v>
+        <v>7857.1428571428569</v>
       </c>
       <c r="C46" s="57" t="s">
         <v>43</v>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B47" s="15">
         <f>B43+B39</f>
-        <v>1228.7999999999997</v>
+        <v>11250</v>
       </c>
       <c r="C47" s="57" t="s">
         <v>44</v>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="B48" s="15">
         <f>B44+B40</f>
-        <v>1638.4</v>
+        <v>14999.999999999998</v>
       </c>
       <c r="C48" s="57" t="s">
         <v>39</v>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B51" s="14">
         <f>B32/'FSLogix Calculator'!B$5</f>
-        <v>20.48</v>
+        <v>15</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>44</v>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="B52" s="14">
         <f>B33/'FSLogix Calculator'!B$5</f>
-        <v>20.48</v>
+        <v>15</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>39</v>
@@ -6100,11 +6100,11 @@
       </c>
       <c r="B2" s="35" t="str">
         <f>IF('FSLogix Calculator'!B18&gt;definitions!B$42,"Required I/O rate exceeds documented single storage account 10,000 op rate upper limit","Yes")</f>
-        <v>Yes</v>
+        <v>Required I/O rate exceeds documented single storage account 10,000 op rate upper limit</v>
       </c>
       <c r="C2" s="36" t="str">
         <f>IF('FSLogix Calculator'!B$18&gt;definitions!B$42,"No, must configure additional storage accounts","Yes")</f>
-        <v>Yes</v>
+        <v>No, must configure additional storage accounts</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6113,11 +6113,11 @@
       </c>
       <c r="B3" s="37" t="str">
         <f>IF(('FSLogix Calculator'!B16)&gt;definitions!B$43,"Required bandwidth exceeds documented single storage account 300MiB/s  upper limit","Yes")</f>
-        <v>Yes</v>
+        <v>Required bandwidth exceeds documented single storage account 300MiB/s  upper limit</v>
       </c>
       <c r="C3" s="36" t="str">
         <f>IF(('FSLogix Calculator'!B16)&gt;definitions!B$43,"No, must configure additional storage accounts","Yes")</f>
-        <v>Yes</v>
+        <v>No, must configure additional storage accounts</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="B8" s="14">
         <f>(('FSLogix Calculator'!B16-('FSLogix Calculator'!B16*(1-'FSLogix Calculator'!B11)))-definitions!B47)/definitions!B48</f>
-        <v>-583.33333333333337</v>
+        <v>4208.3333333333339</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="B9" s="14">
         <f>(('FSLogix Calculator'!B16-('FSLogix Calculator'!B16*'FSLogix Calculator'!B11))-definitions!B49)/definitions!B50</f>
-        <v>1500</v>
+        <v>30250</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B10" s="14">
         <f>IF(B8&lt;100,100,B8)</f>
-        <v>100</v>
+        <v>4208.3333333333339</v>
       </c>
       <c r="C10" t="s">
         <v>130</v>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="B11" s="14">
         <f>IF(B9&lt;100,100,B9)</f>
-        <v>1500</v>
+        <v>30250</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C12" s="14">
         <f>MAX(B10:B11)</f>
-        <v>1500</v>
+        <v>30250</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="C13" s="14">
         <f>IF(B9&gt;'FSLogix Calculator'!B5*'FSLogix Calculator'!B6*'FSLogix Calculator'!B8,C$12,'FSLogix Calculator'!B5*'FSLogix Calculator'!B6*'FSLogix Calculator'!B8)</f>
-        <v>4000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6238,11 +6238,11 @@
       </c>
       <c r="B14" t="str">
         <f>IF(C13&gt;'FSLogix Calculator'!B19,'Azure Files Calculations'!B13,"Profile Size")</f>
-        <v>Profile Size</v>
+        <v>I/O Need</v>
       </c>
       <c r="C14" s="14">
         <f>IF(C13&gt;'FSLogix Calculator'!B19,'Azure Files Calculations'!C13,'FSLogix Calculator'!B19)</f>
-        <v>4000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -8101,18 +8101,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8339,6 +8339,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -8351,14 +8359,6 @@
     <ds:schemaRef ds:uri="943a090e-7b96-4eb7-abc0-264fa36c6c5d"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
